--- a/PricerAndQutation/OptionPricer_v2_20180109.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180109.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="210">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1605,6 +1605,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1614,47 +1623,38 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="179" fontId="7" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1685,30 +1685,30 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="wdf.rtq">
-      <tp>
-        <v>3896</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>ag1806</stp>
         <stp>LastPrice</stp>
         <tr r="P13" s="1"/>
       </tp>
       <tp>
-        <v>5366</v>
+        <v>5330</v>
         <stp/>
         <stp>P1805</stp>
         <stp>LastPrice</stp>
+        <tr r="P10" s="1"/>
         <tr r="P12" s="1"/>
-        <tr r="P10" s="1"/>
         <tr r="P11" s="1"/>
       </tp>
-      <tp>
-        <v>3819</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
         <tr r="P8" s="1"/>
+        <tr r="H8" s="7"/>
         <tr r="H8" s="8"/>
-        <tr r="H8" s="7"/>
       </tp>
     </main>
   </volType>
@@ -2003,10 +2003,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:R14"/>
+  <dimension ref="B1:R17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2540,6 +2540,159 @@
       </c>
       <c r="R14" s="115" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="O15" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="115" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="115">
+        <v>399905</v>
+      </c>
+      <c r="D16" s="116">
+        <v>43110</v>
+      </c>
+      <c r="E16" s="116">
+        <v>43200</v>
+      </c>
+      <c r="F16" s="115">
+        <v>100</v>
+      </c>
+      <c r="G16" s="115">
+        <v>90</v>
+      </c>
+      <c r="H16" s="115">
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="I16" s="115">
+        <v>0.01</v>
+      </c>
+      <c r="J16" s="115">
+        <v>0.17</v>
+      </c>
+      <c r="K16" s="115">
+        <v>-3.4785394292885385</v>
+      </c>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115">
+        <v>0</v>
+      </c>
+      <c r="N16" s="167">
+        <v>3.4785394292885385</v>
+      </c>
+      <c r="O16" s="115">
+        <v>100</v>
+      </c>
+      <c r="P16" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="115">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="115" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="115">
+        <v>399905</v>
+      </c>
+      <c r="D17" s="116">
+        <v>43110</v>
+      </c>
+      <c r="E17" s="116">
+        <v>43200</v>
+      </c>
+      <c r="F17" s="115">
+        <v>102</v>
+      </c>
+      <c r="G17" s="115">
+        <v>90</v>
+      </c>
+      <c r="H17" s="115">
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="I17" s="115">
+        <v>0.01</v>
+      </c>
+      <c r="J17" s="115">
+        <v>0.17</v>
+      </c>
+      <c r="K17" s="115">
+        <v>-2.5866818499168573</v>
+      </c>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115">
+        <v>0</v>
+      </c>
+      <c r="N17" s="167">
+        <v>2.5866818499168573</v>
+      </c>
+      <c r="O17" s="115">
+        <v>100</v>
+      </c>
+      <c r="P17" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="115">
+        <v>-1</v>
+      </c>
+      <c r="R17" s="115" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2808,8 +2961,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="17" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
@@ -2825,63 +2978,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="180" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="183"/>
+      <c r="C1" s="180"/>
     </row>
     <row r="2" spans="2:20" ht="12" thickTop="1"/>
     <row r="3" spans="2:20" ht="12.75" thickBot="1">
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="179" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="G3" s="185" t="s">
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="G3" s="176" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="L3" s="184" t="s">
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="L3" s="179" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="184"/>
-      <c r="N3" s="184"/>
-      <c r="O3" s="184"/>
-      <c r="Q3" s="185" t="s">
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="179"/>
+      <c r="Q3" s="176" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="185"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="185"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="176"/>
     </row>
     <row r="4" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="G4" s="179" t="s">
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="G4" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="L4" s="179" t="s">
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
+      <c r="L4" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="179"/>
-      <c r="Q4" s="179" t="s">
+      <c r="M4" s="177"/>
+      <c r="N4" s="177"/>
+      <c r="O4" s="177"/>
+      <c r="Q4" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="179"/>
-      <c r="S4" s="179"/>
-      <c r="T4" s="179"/>
+      <c r="R4" s="177"/>
+      <c r="S4" s="177"/>
+      <c r="T4" s="177"/>
     </row>
     <row r="5" spans="2:20" ht="14.25" thickTop="1">
       <c r="B5" s="33" t="s">
@@ -2890,10 +3043,10 @@
       <c r="C5" s="34"/>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
-      <c r="G5" s="182" t="s">
+      <c r="G5" s="175" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="182"/>
+      <c r="H5" s="175"/>
       <c r="I5" s="35"/>
       <c r="J5" s="36"/>
       <c r="L5" s="33" t="s">
@@ -2902,360 +3055,360 @@
       <c r="M5" s="34"/>
       <c r="N5" s="35"/>
       <c r="O5" s="36"/>
-      <c r="Q5" s="182" t="s">
+      <c r="Q5" s="175" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="182"/>
+      <c r="R5" s="175"/>
       <c r="S5" s="35"/>
       <c r="T5" s="36"/>
     </row>
     <row r="6" spans="2:20" ht="13.5">
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="172" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="169"/>
-      <c r="D6" s="170" t="s">
+      <c r="C6" s="172"/>
+      <c r="D6" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="171"/>
-      <c r="G6" s="182" t="s">
+      <c r="E6" s="174"/>
+      <c r="G6" s="175" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="182"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
-      <c r="L6" s="169" t="s">
+      <c r="H6" s="175"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="174"/>
+      <c r="L6" s="172" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="169"/>
-      <c r="N6" s="170" t="s">
+      <c r="M6" s="172"/>
+      <c r="N6" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="171"/>
-      <c r="Q6" s="182" t="s">
+      <c r="O6" s="174"/>
+      <c r="Q6" s="175" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="182"/>
-      <c r="S6" s="170"/>
-      <c r="T6" s="171"/>
+      <c r="R6" s="175"/>
+      <c r="S6" s="173"/>
+      <c r="T6" s="174"/>
     </row>
     <row r="7" spans="2:20" ht="13.5">
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="172" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="169"/>
-      <c r="D7" s="170" t="s">
+      <c r="C7" s="172"/>
+      <c r="D7" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="171"/>
-      <c r="G7" s="182" t="s">
+      <c r="E7" s="174"/>
+      <c r="G7" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="182"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="171"/>
-      <c r="L7" s="169" t="s">
+      <c r="H7" s="175"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="174"/>
+      <c r="L7" s="172" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="169"/>
-      <c r="N7" s="170" t="s">
+      <c r="M7" s="172"/>
+      <c r="N7" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="171"/>
-      <c r="Q7" s="182" t="s">
+      <c r="O7" s="174"/>
+      <c r="Q7" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="182"/>
-      <c r="S7" s="170"/>
-      <c r="T7" s="171"/>
+      <c r="R7" s="175"/>
+      <c r="S7" s="173"/>
+      <c r="T7" s="174"/>
     </row>
     <row r="8" spans="2:20" ht="13.5">
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="172" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="169"/>
-      <c r="D8" s="170">
+      <c r="C8" s="172"/>
+      <c r="D8" s="173">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="171"/>
-      <c r="G8" s="182" t="s">
+      <c r="E8" s="174"/>
+      <c r="G8" s="175" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="182"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="171"/>
-      <c r="L8" s="169" t="s">
+      <c r="H8" s="175"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="174"/>
+      <c r="L8" s="172" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="169"/>
-      <c r="N8" s="170">
+      <c r="M8" s="172"/>
+      <c r="N8" s="173">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="171"/>
-      <c r="Q8" s="182" t="s">
+      <c r="O8" s="174"/>
+      <c r="Q8" s="175" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="182"/>
-      <c r="S8" s="170"/>
-      <c r="T8" s="171"/>
+      <c r="R8" s="175"/>
+      <c r="S8" s="173"/>
+      <c r="T8" s="174"/>
     </row>
     <row r="9" spans="2:20" ht="13.5">
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="172" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="169"/>
-      <c r="D9" s="170" t="s">
+      <c r="C9" s="172"/>
+      <c r="D9" s="173" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="171"/>
-      <c r="G9" s="182" t="s">
+      <c r="E9" s="174"/>
+      <c r="G9" s="175" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="182"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="171"/>
-      <c r="L9" s="169" t="s">
+      <c r="H9" s="175"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="174"/>
+      <c r="L9" s="172" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="169"/>
-      <c r="N9" s="170" t="s">
+      <c r="M9" s="172"/>
+      <c r="N9" s="173" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="171"/>
-      <c r="Q9" s="182" t="s">
+      <c r="O9" s="174"/>
+      <c r="Q9" s="175" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="182"/>
-      <c r="S9" s="170"/>
-      <c r="T9" s="171"/>
+      <c r="R9" s="175"/>
+      <c r="S9" s="173"/>
+      <c r="T9" s="174"/>
     </row>
     <row r="10" spans="2:20" ht="13.5">
-      <c r="B10" s="169" t="s">
+      <c r="B10" s="172" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="169"/>
-      <c r="D10" s="170">
+      <c r="C10" s="172"/>
+      <c r="D10" s="173">
         <v>43084</v>
       </c>
-      <c r="E10" s="171"/>
+      <c r="E10" s="174"/>
       <c r="G10" s="30" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="30"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="171"/>
-      <c r="L10" s="169" t="s">
+      <c r="I10" s="173"/>
+      <c r="J10" s="174"/>
+      <c r="L10" s="172" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="169"/>
-      <c r="N10" s="170">
+      <c r="M10" s="172"/>
+      <c r="N10" s="173">
         <v>43084</v>
       </c>
-      <c r="O10" s="171"/>
+      <c r="O10" s="174"/>
       <c r="Q10" s="52" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="52"/>
-      <c r="S10" s="170"/>
-      <c r="T10" s="171"/>
+      <c r="S10" s="173"/>
+      <c r="T10" s="174"/>
     </row>
     <row r="11" spans="2:20" ht="13.5">
-      <c r="B11" s="169" t="s">
+      <c r="B11" s="172" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="169"/>
-      <c r="D11" s="170">
+      <c r="C11" s="172"/>
+      <c r="D11" s="173">
         <v>3935</v>
       </c>
-      <c r="E11" s="171"/>
-      <c r="G11" s="182" t="s">
+      <c r="E11" s="174"/>
+      <c r="G11" s="175" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="182"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="171"/>
-      <c r="L11" s="169" t="s">
+      <c r="H11" s="175"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="174"/>
+      <c r="L11" s="172" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="169"/>
-      <c r="N11" s="170">
+      <c r="M11" s="172"/>
+      <c r="N11" s="173">
         <v>3935</v>
       </c>
-      <c r="O11" s="171"/>
-      <c r="Q11" s="182" t="s">
+      <c r="O11" s="174"/>
+      <c r="Q11" s="175" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="182"/>
-      <c r="S11" s="170"/>
-      <c r="T11" s="171"/>
+      <c r="R11" s="175"/>
+      <c r="S11" s="173"/>
+      <c r="T11" s="174"/>
     </row>
     <row r="12" spans="2:20" ht="13.5">
-      <c r="B12" s="169" t="s">
+      <c r="B12" s="172" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="169"/>
-      <c r="D12" s="170">
+      <c r="C12" s="172"/>
+      <c r="D12" s="173">
         <v>3800</v>
       </c>
-      <c r="E12" s="171"/>
-      <c r="G12" s="182" t="s">
+      <c r="E12" s="174"/>
+      <c r="G12" s="175" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="182"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="171"/>
-      <c r="L12" s="169" t="s">
+      <c r="H12" s="175"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="174"/>
+      <c r="L12" s="172" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="169"/>
-      <c r="N12" s="170">
+      <c r="M12" s="172"/>
+      <c r="N12" s="173">
         <v>3800</v>
       </c>
-      <c r="O12" s="171"/>
-      <c r="Q12" s="182" t="s">
+      <c r="O12" s="174"/>
+      <c r="Q12" s="175" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="182"/>
-      <c r="S12" s="170"/>
-      <c r="T12" s="171"/>
+      <c r="R12" s="175"/>
+      <c r="S12" s="173"/>
+      <c r="T12" s="174"/>
     </row>
     <row r="13" spans="2:20" ht="13.5">
-      <c r="B13" s="169" t="s">
+      <c r="B13" s="172" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="169"/>
-      <c r="D13" s="170">
+      <c r="C13" s="172"/>
+      <c r="D13" s="173">
         <v>61</v>
       </c>
-      <c r="E13" s="171"/>
-      <c r="G13" s="182" t="s">
+      <c r="E13" s="174"/>
+      <c r="G13" s="175" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="182"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="171"/>
-      <c r="L13" s="169" t="s">
+      <c r="H13" s="175"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="174"/>
+      <c r="L13" s="172" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="169"/>
-      <c r="N13" s="170">
+      <c r="M13" s="172"/>
+      <c r="N13" s="173">
         <v>3800</v>
       </c>
-      <c r="O13" s="171"/>
-      <c r="Q13" s="182" t="s">
+      <c r="O13" s="174"/>
+      <c r="Q13" s="175" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="182"/>
-      <c r="S13" s="170"/>
-      <c r="T13" s="171"/>
+      <c r="R13" s="175"/>
+      <c r="S13" s="173"/>
+      <c r="T13" s="174"/>
     </row>
     <row r="14" spans="2:20" ht="13.5">
-      <c r="B14" s="169" t="s">
+      <c r="B14" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="169"/>
-      <c r="D14" s="170" t="s">
+      <c r="C14" s="172"/>
+      <c r="D14" s="173" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="171"/>
-      <c r="G14" s="182" t="s">
+      <c r="E14" s="174"/>
+      <c r="G14" s="175" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="182"/>
+      <c r="H14" s="175"/>
       <c r="I14" s="31"/>
       <c r="J14" s="32"/>
-      <c r="L14" s="169" t="s">
+      <c r="L14" s="172" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="169"/>
-      <c r="N14" s="170">
+      <c r="M14" s="172"/>
+      <c r="N14" s="173">
         <v>61</v>
       </c>
-      <c r="O14" s="171"/>
-      <c r="Q14" s="182" t="s">
+      <c r="O14" s="174"/>
+      <c r="Q14" s="175" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="182"/>
-      <c r="S14" s="170"/>
-      <c r="T14" s="171"/>
+      <c r="R14" s="175"/>
+      <c r="S14" s="173"/>
+      <c r="T14" s="174"/>
     </row>
     <row r="15" spans="2:20" ht="13.5">
-      <c r="B15" s="169" t="s">
+      <c r="B15" s="172" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="169"/>
-      <c r="D15" s="170">
+      <c r="C15" s="172"/>
+      <c r="D15" s="173">
         <v>5000</v>
       </c>
-      <c r="E15" s="171"/>
-      <c r="G15" s="182" t="s">
+      <c r="E15" s="174"/>
+      <c r="G15" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="182"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="171"/>
-      <c r="L15" s="169" t="s">
+      <c r="H15" s="175"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="174"/>
+      <c r="L15" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="169"/>
-      <c r="N15" s="170" t="s">
+      <c r="M15" s="172"/>
+      <c r="N15" s="173" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="171"/>
-      <c r="Q15" s="182" t="s">
+      <c r="O15" s="174"/>
+      <c r="Q15" s="175" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="182"/>
+      <c r="R15" s="175"/>
       <c r="S15" s="50"/>
       <c r="T15" s="51"/>
     </row>
     <row r="16" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="178" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="174"/>
-      <c r="D16" s="175" t="s">
+      <c r="C16" s="178"/>
+      <c r="D16" s="170" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="176"/>
-      <c r="G16" s="178" t="s">
+      <c r="E16" s="171"/>
+      <c r="G16" s="169" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="178"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="176"/>
-      <c r="L16" s="169" t="s">
+      <c r="H16" s="169"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="171"/>
+      <c r="L16" s="172" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="169"/>
-      <c r="N16" s="170">
+      <c r="M16" s="172"/>
+      <c r="N16" s="173">
         <v>5000</v>
       </c>
-      <c r="O16" s="171"/>
-      <c r="Q16" s="182" t="s">
+      <c r="O16" s="174"/>
+      <c r="Q16" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="182"/>
-      <c r="S16" s="170"/>
-      <c r="T16" s="171"/>
+      <c r="R16" s="175"/>
+      <c r="S16" s="173"/>
+      <c r="T16" s="174"/>
     </row>
     <row r="17" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="L17" s="174" t="s">
+      <c r="L17" s="178" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="174"/>
-      <c r="N17" s="175" t="s">
+      <c r="M17" s="178"/>
+      <c r="N17" s="170" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="176"/>
-      <c r="Q17" s="178" t="s">
+      <c r="O17" s="171"/>
+      <c r="Q17" s="169" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="178"/>
-      <c r="S17" s="175"/>
-      <c r="T17" s="176"/>
+      <c r="R17" s="169"/>
+      <c r="S17" s="170"/>
+      <c r="T17" s="171"/>
     </row>
     <row r="18" spans="2:20" ht="12" thickTop="1"/>
     <row r="19" spans="2:20" ht="13.5">
@@ -3274,274 +3427,351 @@
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="B22" s="179" t="s">
+      <c r="B22" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="G22" s="179" t="s">
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="G22" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="179"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="177"/>
     </row>
     <row r="23" spans="2:20" ht="14.25" thickTop="1">
       <c r="B23" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="34"/>
-      <c r="D23" s="180">
+      <c r="D23" s="184">
         <v>43109</v>
       </c>
-      <c r="E23" s="181"/>
+      <c r="E23" s="185"/>
       <c r="G23" s="33" t="s">
         <v>122</v>
       </c>
       <c r="H23" s="34"/>
-      <c r="I23" s="180">
+      <c r="I23" s="184">
         <v>43098</v>
       </c>
-      <c r="J23" s="181"/>
+      <c r="J23" s="185"/>
     </row>
     <row r="24" spans="2:20" ht="13.5">
-      <c r="B24" s="169" t="s">
+      <c r="B24" s="172" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="169"/>
-      <c r="D24" s="170" t="s">
+      <c r="C24" s="172"/>
+      <c r="D24" s="173" t="s">
         <v>205</v>
       </c>
-      <c r="E24" s="171"/>
-      <c r="G24" s="169" t="s">
+      <c r="E24" s="174"/>
+      <c r="G24" s="172" t="s">
         <v>190</v>
       </c>
-      <c r="H24" s="169"/>
-      <c r="I24" s="170" t="s">
+      <c r="H24" s="172"/>
+      <c r="I24" s="173" t="s">
         <v>185</v>
       </c>
-      <c r="J24" s="171"/>
+      <c r="J24" s="174"/>
     </row>
     <row r="25" spans="2:20" ht="13.5">
-      <c r="B25" s="169" t="s">
+      <c r="B25" s="172" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="169"/>
-      <c r="D25" s="170" t="s">
+      <c r="C25" s="172"/>
+      <c r="D25" s="173" t="s">
         <v>179</v>
       </c>
-      <c r="E25" s="171"/>
-      <c r="G25" s="169" t="s">
+      <c r="E25" s="174"/>
+      <c r="G25" s="172" t="s">
         <v>187</v>
       </c>
-      <c r="H25" s="169"/>
-      <c r="I25" s="170">
+      <c r="H25" s="172"/>
+      <c r="I25" s="173">
         <v>9375</v>
       </c>
-      <c r="J25" s="171"/>
+      <c r="J25" s="174"/>
     </row>
     <row r="26" spans="2:20" ht="13.5">
-      <c r="B26" s="169" t="s">
+      <c r="B26" s="172" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="169"/>
-      <c r="D26" s="172">
+      <c r="C26" s="172"/>
+      <c r="D26" s="181">
         <f>D31*D33</f>
         <v>15000</v>
       </c>
-      <c r="E26" s="173"/>
+      <c r="E26" s="182"/>
       <c r="G26" s="111" t="s">
         <v>188</v>
       </c>
       <c r="H26" s="111"/>
-      <c r="I26" s="170" t="s">
+      <c r="I26" s="173" t="s">
         <v>191</v>
       </c>
-      <c r="J26" s="171" t="s">
+      <c r="J26" s="174" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="13.5">
-      <c r="B27" s="169" t="s">
+      <c r="B27" s="172" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="169"/>
-      <c r="D27" s="170" t="s">
+      <c r="C27" s="172"/>
+      <c r="D27" s="173" t="s">
         <v>181</v>
       </c>
-      <c r="E27" s="171"/>
-      <c r="G27" s="169" t="s">
+      <c r="E27" s="174"/>
+      <c r="G27" s="172" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="169"/>
-      <c r="I27" s="170" t="s">
+      <c r="H27" s="172"/>
+      <c r="I27" s="173" t="s">
         <v>182</v>
       </c>
-      <c r="J27" s="171"/>
+      <c r="J27" s="174"/>
     </row>
     <row r="28" spans="2:20" ht="13.5">
-      <c r="B28" s="169" t="s">
+      <c r="B28" s="172" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="169"/>
-      <c r="D28" s="177">
+      <c r="C28" s="172"/>
+      <c r="D28" s="183">
         <v>43137</v>
       </c>
-      <c r="E28" s="171"/>
-      <c r="G28" s="169" t="s">
+      <c r="E28" s="174"/>
+      <c r="G28" s="172" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="169"/>
-      <c r="I28" s="177">
+      <c r="H28" s="172"/>
+      <c r="I28" s="183">
         <v>43159</v>
       </c>
-      <c r="J28" s="171"/>
+      <c r="J28" s="174"/>
     </row>
     <row r="29" spans="2:20" ht="13.5">
-      <c r="B29" s="169" t="s">
+      <c r="B29" s="172" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="170">
+      <c r="C29" s="172"/>
+      <c r="D29" s="173">
         <v>3896</v>
       </c>
-      <c r="E29" s="171"/>
-      <c r="G29" s="169" t="s">
+      <c r="E29" s="174"/>
+      <c r="G29" s="172" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="169"/>
-      <c r="I29" s="170">
+      <c r="H29" s="172"/>
+      <c r="I29" s="173">
         <v>9770</v>
       </c>
-      <c r="J29" s="171"/>
+      <c r="J29" s="174"/>
     </row>
     <row r="30" spans="2:20" ht="13.5">
-      <c r="B30" s="169" t="s">
+      <c r="B30" s="172" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="169"/>
-      <c r="D30" s="170">
+      <c r="C30" s="172"/>
+      <c r="D30" s="173">
         <v>3750</v>
       </c>
-      <c r="E30" s="171"/>
-      <c r="G30" s="169" t="s">
+      <c r="E30" s="174"/>
+      <c r="G30" s="172" t="s">
         <v>183</v>
       </c>
-      <c r="H30" s="169"/>
+      <c r="H30" s="172"/>
       <c r="I30" s="112"/>
       <c r="J30" s="113">
         <v>9500</v>
       </c>
     </row>
     <row r="31" spans="2:20" ht="13.5">
-      <c r="B31" s="169" t="s">
+      <c r="B31" s="172" t="s">
         <v>206</v>
       </c>
-      <c r="C31" s="169"/>
-      <c r="D31" s="170">
+      <c r="C31" s="172"/>
+      <c r="D31" s="173">
         <v>10</v>
       </c>
-      <c r="E31" s="171"/>
-      <c r="G31" s="169" t="s">
+      <c r="E31" s="174"/>
+      <c r="G31" s="172" t="s">
         <v>184</v>
       </c>
-      <c r="H31" s="169"/>
-      <c r="I31" s="170">
+      <c r="H31" s="172"/>
+      <c r="I31" s="173">
         <v>10040</v>
       </c>
-      <c r="J31" s="171"/>
+      <c r="J31" s="174"/>
     </row>
     <row r="32" spans="2:20" ht="13.5">
-      <c r="B32" s="169" t="s">
+      <c r="B32" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="169"/>
-      <c r="D32" s="170" t="s">
+      <c r="C32" s="172"/>
+      <c r="D32" s="173" t="s">
         <v>208</v>
       </c>
-      <c r="E32" s="171"/>
-      <c r="G32" s="169" t="s">
+      <c r="E32" s="174"/>
+      <c r="G32" s="172" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="169"/>
-      <c r="I32" s="170">
+      <c r="H32" s="172"/>
+      <c r="I32" s="173">
         <v>15</v>
       </c>
-      <c r="J32" s="171"/>
+      <c r="J32" s="174"/>
     </row>
     <row r="33" spans="2:10" ht="13.5">
-      <c r="B33" s="169" t="s">
+      <c r="B33" s="172" t="s">
         <v>207</v>
       </c>
-      <c r="C33" s="169"/>
-      <c r="D33" s="172">
+      <c r="C33" s="172"/>
+      <c r="D33" s="181">
         <v>1500</v>
       </c>
-      <c r="E33" s="173"/>
-      <c r="G33" s="169" t="s">
+      <c r="E33" s="182"/>
+      <c r="G33" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="H33" s="169"/>
-      <c r="I33" s="170" t="s">
+      <c r="H33" s="172"/>
+      <c r="I33" s="173" t="s">
         <v>186</v>
       </c>
-      <c r="J33" s="171"/>
+      <c r="J33" s="174"/>
     </row>
     <row r="34" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="178" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="174"/>
-      <c r="D34" s="175" t="s">
+      <c r="C34" s="178"/>
+      <c r="D34" s="170" t="s">
         <v>180</v>
       </c>
-      <c r="E34" s="176"/>
-      <c r="G34" s="169" t="s">
+      <c r="E34" s="171"/>
+      <c r="G34" s="172" t="s">
         <v>145</v>
       </c>
-      <c r="H34" s="169"/>
-      <c r="I34" s="172">
+      <c r="H34" s="172"/>
+      <c r="I34" s="181">
         <v>625</v>
       </c>
-      <c r="J34" s="173"/>
+      <c r="J34" s="182"/>
     </row>
     <row r="35" spans="2:10" ht="15" thickTop="1" thickBot="1">
-      <c r="G35" s="174" t="s">
+      <c r="G35" s="178" t="s">
         <v>147</v>
       </c>
-      <c r="H35" s="174"/>
-      <c r="I35" s="175" t="s">
+      <c r="H35" s="178"/>
+      <c r="I35" s="170" t="s">
         <v>180</v>
       </c>
-      <c r="J35" s="176"/>
+      <c r="J35" s="171"/>
     </row>
     <row r="36" spans="2:10" ht="12" thickTop="1"/>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -3566,106 +3796,29 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3677,8 +3830,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3705,10 +3858,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="183"/>
+      <c r="C1" s="180"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -3833,12 +3986,12 @@
         <v>22</v>
       </c>
       <c r="E8" s="21">
-        <f t="shared" ref="E8:E13" ca="1" si="0">TODAY()</f>
-        <v>43109</v>
+        <f t="shared" ref="E8:E15" ca="1" si="0">TODAY()</f>
+        <v>43110</v>
       </c>
       <c r="F8" s="21">
         <f t="shared" ref="F8:F9" ca="1" si="1">E8+H8</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="G8" s="19">
         <v>3800</v>
@@ -3856,24 +4009,24 @@
       <c r="K8" s="23">
         <v>0.3</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-140.1600555892278</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M8" s="25">
         <v>80</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="24" t="e">
         <f t="shared" ref="N8:N9" si="3">M8/10000*I8*P8</f>
-        <v>2.5111232876712331</v>
-      </c>
-      <c r="O8" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="O8" s="24" t="e">
         <f t="shared" ref="O8:O9" si="4">IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>142.67117887689903</v>
-      </c>
-      <c r="P8" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P8" s="20" t="e">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>3819</v>
+        <v>#N/A</v>
       </c>
       <c r="Q8" s="19" t="s">
         <v>27</v>
@@ -3885,17 +4038,17 @@
       <c r="S8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="26">
+      <c r="T8" s="26" t="e">
         <f t="shared" ref="T8:T9" si="6">O8/P8</f>
-        <v>3.7358255793898676E-2</v>
-      </c>
-      <c r="U8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-0.53933484009576205</v>
-      </c>
-      <c r="V8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-4.3385461414180782</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -3911,11 +4064,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="G9" s="10">
         <v>102.5</v>
@@ -3985,11 +4138,11 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" ca="1" si="7">E10+H10</f>
-        <v>43168</v>
+        <v>43169</v>
       </c>
       <c r="G10" s="10">
         <v>5000</v>
@@ -4009,7 +4162,7 @@
       </c>
       <c r="L10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
-        <v>205.43369558777704</v>
+        <v>230.27958215494482</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="13">
@@ -4018,11 +4171,11 @@
       </c>
       <c r="O10" s="13">
         <f t="shared" ref="O10:O11" si="9">IF(L10&lt;=0,ABS(L10)+N10,L10-N10)</f>
-        <v>205.43369558777704</v>
+        <v>230.27958215494482</v>
       </c>
       <c r="P10" s="11">
         <f>RTD("wdf.rtq",,D10,"LastPrice")*0.9</f>
-        <v>4829.4000000000005</v>
+        <v>4797</v>
       </c>
       <c r="Q10" s="10" t="s">
         <v>85</v>
@@ -4036,15 +4189,15 @@
       </c>
       <c r="T10" s="14">
         <f t="shared" ref="T10:T11" si="10">O10/P10</f>
-        <v>4.253814047040564E-2</v>
+        <v>4.8004916021460252E-2</v>
       </c>
       <c r="U10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
-        <v>-0.74612868795611575</v>
+        <v>-0.78693984378332971</v>
       </c>
       <c r="V10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
-        <v>5.8990215562257617</v>
+        <v>5.3043290433970469</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -4060,11 +4213,11 @@
       </c>
       <c r="E11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>43168</v>
+        <v>43169</v>
       </c>
       <c r="G11" s="10">
         <v>5100</v>
@@ -4084,7 +4237,7 @@
       </c>
       <c r="L11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>21.039219263810878</v>
+        <v>26.964300153198337</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="13">
@@ -4093,11 +4246,11 @@
       </c>
       <c r="O11" s="13">
         <f t="shared" si="9"/>
-        <v>21.039219263810878</v>
+        <v>26.964300153198337</v>
       </c>
       <c r="P11" s="11">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>5366</v>
+        <v>5330</v>
       </c>
       <c r="Q11" s="10" t="s">
         <v>85</v>
@@ -4111,15 +4264,15 @@
       </c>
       <c r="T11" s="14">
         <f t="shared" si="10"/>
-        <v>3.920838476297219E-3</v>
+        <v>5.0589681338083182E-3</v>
       </c>
       <c r="U11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.14831504852281796</v>
+        <v>-0.18162105023975528</v>
       </c>
       <c r="V11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>4.7618772000560625</v>
+        <v>5.3945832006487535</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -4135,11 +4288,11 @@
       </c>
       <c r="E12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12" ca="1" si="11">E12+H12</f>
-        <v>43168</v>
+        <v>43169</v>
       </c>
       <c r="G12" s="10">
         <v>5200</v>
@@ -4159,7 +4312,7 @@
       </c>
       <c r="L12" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>42.393619629575369</v>
+        <v>52.408469819921493</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="13">
@@ -4168,11 +4321,11 @@
       </c>
       <c r="O12" s="13">
         <f t="shared" ref="O12" si="13">IF(L12&lt;=0,ABS(L12)+N12,L12-N12)</f>
-        <v>42.393619629575369</v>
+        <v>52.408469819921493</v>
       </c>
       <c r="P12" s="11">
         <f>RTD("wdf.rtq",,D12,"LastPrice")</f>
-        <v>5366</v>
+        <v>5330</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>85</v>
@@ -4186,15 +4339,15 @@
       </c>
       <c r="T12" s="14">
         <f t="shared" ref="T12" si="14">O12/P12</f>
-        <v>7.9004136469577654E-3</v>
+        <v>9.8327335497038447E-3</v>
       </c>
       <c r="U12" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>-0.25597475331551323</v>
+        <v>-0.30104875260121844</v>
       </c>
       <c r="V12" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>6.6246368179856745</v>
+        <v>7.1229694997731485</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -4210,11 +4363,11 @@
       </c>
       <c r="E13" s="119">
         <f t="shared" ca="1" si="0"/>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="F13" s="119">
         <f t="shared" ref="F13" ca="1" si="15">E13+H13</f>
-        <v>43137</v>
+        <v>43138</v>
       </c>
       <c r="G13" s="118">
         <v>3750</v>
@@ -4232,22 +4385,22 @@
       <c r="K13" s="121">
         <v>0.13</v>
       </c>
-      <c r="L13" s="117">
+      <c r="L13" s="117" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-10.182807870871898</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M13" s="122"/>
-      <c r="N13" s="117">
+      <c r="N13" s="117" t="e">
         <f t="shared" ref="N13" si="16">M13/10000*I13*P13</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="117">
+        <v>#N/A</v>
+      </c>
+      <c r="O13" s="117" t="e">
         <f t="shared" ref="O13" si="17">IF(L13&lt;=0,ABS(L13)+N13,L13-N13)</f>
-        <v>10.182807870871898</v>
-      </c>
-      <c r="P13" s="123">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P13" s="123" t="e">
         <f>RTD("wdf.rtq",,D13,"LastPrice")</f>
-        <v>3896</v>
+        <v>#N/A</v>
       </c>
       <c r="Q13" s="118" t="s">
         <v>85</v>
@@ -4259,66 +4412,166 @@
       <c r="S13" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="124">
+      <c r="T13" s="124" t="e">
         <f t="shared" ref="T13" si="18">O13/P13</f>
-        <v>2.6136570510451483E-3</v>
-      </c>
-      <c r="U13" s="117">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U13" s="117" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>0.14012702385457487</v>
-      </c>
-      <c r="V13" s="117">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V13" s="117" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-2.3970696330077033</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="53"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="117"/>
+      <c r="B14" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="118" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="118">
+        <v>399905</v>
+      </c>
+      <c r="E14" s="119">
+        <f t="shared" ca="1" si="0"/>
+        <v>43110</v>
+      </c>
+      <c r="F14" s="119">
+        <f t="shared" ref="F14:F15" ca="1" si="19">E14+H14</f>
+        <v>43200</v>
+      </c>
+      <c r="G14" s="118">
+        <v>100</v>
+      </c>
+      <c r="H14" s="118">
+        <v>90</v>
+      </c>
+      <c r="I14" s="120">
+        <f>(H14)/365</f>
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="J14" s="120">
+        <v>0.01</v>
+      </c>
+      <c r="K14" s="121">
+        <v>0.17</v>
+      </c>
+      <c r="L14" s="117">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
+        <v>-3.4785394292885385</v>
+      </c>
       <c r="M14" s="122"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="124"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="117"/>
+      <c r="N14" s="117">
+        <f t="shared" ref="N14:N15" si="20">M14/10000*I14*P14</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="117">
+        <f t="shared" ref="O14:O15" si="21">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
+        <v>3.4785394292885385</v>
+      </c>
+      <c r="P14" s="123">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="118">
+        <f t="shared" ref="R14:R15" si="22">IF(S14="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S14" s="118" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="124">
+        <f t="shared" ref="T14:T15" si="23">O14/P14</f>
+        <v>3.4785394292885387E-2</v>
+      </c>
+      <c r="U14" s="117">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
+        <v>-0.52716578759692823</v>
+      </c>
+      <c r="V14" s="117">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
+        <v>-0.19710851437914911</v>
+      </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="53"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="117"/>
+      <c r="B15" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="118" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="118">
+        <v>399905</v>
+      </c>
+      <c r="E15" s="119">
+        <f t="shared" ca="1" si="0"/>
+        <v>43110</v>
+      </c>
+      <c r="F15" s="119">
+        <f t="shared" ca="1" si="19"/>
+        <v>43200</v>
+      </c>
+      <c r="G15" s="118">
+        <v>102</v>
+      </c>
+      <c r="H15" s="118">
+        <v>90</v>
+      </c>
+      <c r="I15" s="120">
+        <f>(H15)/365</f>
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="J15" s="120">
+        <v>0.01</v>
+      </c>
+      <c r="K15" s="121">
+        <v>0.17</v>
+      </c>
+      <c r="L15" s="117">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
+        <v>-2.5866818499168573</v>
+      </c>
       <c r="M15" s="122"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="124"/>
-      <c r="U15" s="117"/>
-      <c r="V15" s="117"/>
+      <c r="N15" s="117">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="117">
+        <f t="shared" si="21"/>
+        <v>2.5866818499168573</v>
+      </c>
+      <c r="P15" s="123">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="118">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="S15" s="118" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="124">
+        <f t="shared" si="23"/>
+        <v>2.5866818499168574E-2</v>
+      </c>
+      <c r="U15" s="117">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
+        <v>-0.43412178280242131</v>
+      </c>
+      <c r="V15" s="117">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
+        <v>-0.19498490347986319</v>
+      </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="53"/>
@@ -5544,7 +5797,7 @@
       <c r="B1" s="186" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="183"/>
+      <c r="C1" s="180"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1">
       <c r="B2" s="37" t="s">
@@ -5675,11 +5928,11 @@
       </c>
       <c r="F8" s="65">
         <f ca="1">TODAY()</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G8" s="65">
         <f ca="1">F8+I8</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H8" s="63">
         <v>100</v>
@@ -5743,11 +5996,11 @@
       </c>
       <c r="F9" s="73">
         <f ca="1">F8</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G9" s="73">
         <f ca="1">G8</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H9" s="71">
         <v>100</v>
@@ -5811,11 +6064,11 @@
       </c>
       <c r="F10" s="81">
         <f ca="1">F9</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G10" s="81">
         <f ca="1">G9</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H10" s="79" t="str">
         <f>H8 &amp; "|" &amp; H9</f>
@@ -5884,11 +6137,11 @@
       </c>
       <c r="F11" s="73">
         <f ca="1">TODAY()</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G11" s="73">
         <f ca="1">F11+I11</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H11" s="72">
         <v>460</v>
@@ -5953,11 +6206,11 @@
       </c>
       <c r="F12" s="73">
         <f ca="1">F11</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G12" s="73">
         <f ca="1">G11</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H12" s="72">
         <v>650</v>
@@ -6021,11 +6274,11 @@
       </c>
       <c r="F13" s="81">
         <f t="shared" ref="F13:G13" ca="1" si="2">F12</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G13" s="81">
         <f t="shared" ca="1" si="2"/>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H13" s="79" t="str">
         <f>H11 &amp; "|" &amp; H12</f>
@@ -6094,11 +6347,11 @@
       </c>
       <c r="F14" s="73">
         <f ca="1">TODAY()</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G14" s="73">
         <f ca="1">F14+I14</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H14" s="72">
         <v>490</v>
@@ -6163,11 +6416,11 @@
       </c>
       <c r="F15" s="73">
         <f ca="1">F14</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G15" s="73">
         <f ca="1">G14</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H15" s="72">
         <v>550</v>
@@ -6231,11 +6484,11 @@
       </c>
       <c r="F16" s="81">
         <f t="shared" ref="F16:G16" ca="1" si="3">F15</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G16" s="81">
         <f t="shared" ca="1" si="3"/>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H16" s="79" t="str">
         <f>H14 &amp; "|" &amp; H15</f>
@@ -6304,11 +6557,11 @@
       </c>
       <c r="F17" s="73">
         <f ca="1">TODAY()</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G17" s="73">
         <f ca="1">F17+I17</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H17" s="72">
         <v>510</v>
@@ -6373,11 +6626,11 @@
       </c>
       <c r="F18" s="73">
         <f ca="1">F17</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G18" s="73">
         <f ca="1">G17</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H18" s="72">
         <v>600</v>
@@ -6441,11 +6694,11 @@
       </c>
       <c r="F19" s="128">
         <f t="shared" ref="F19:G19" ca="1" si="4">F18</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G19" s="128">
         <f t="shared" ca="1" si="4"/>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H19" s="127" t="str">
         <f>H17 &amp; "|" &amp; H18</f>
@@ -6514,11 +6767,11 @@
       </c>
       <c r="F20" s="137">
         <f ca="1">TODAY()</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G20" s="137">
         <f ca="1">F20+I20</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H20" s="138">
         <v>1300</v>
@@ -6583,11 +6836,11 @@
       </c>
       <c r="F21" s="73">
         <f ca="1">F20</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G21" s="73">
         <f ca="1">G20</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H21" s="72">
         <v>1450</v>
@@ -6651,11 +6904,11 @@
       </c>
       <c r="F22" s="81">
         <f t="shared" ref="F22:G22" ca="1" si="5">F21</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G22" s="81">
         <f t="shared" ca="1" si="5"/>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H22" s="79" t="str">
         <f>H20 &amp; "|" &amp; H21</f>
@@ -6724,11 +6977,11 @@
       </c>
       <c r="F23" s="73">
         <f ca="1">TODAY()</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G23" s="73">
         <f ca="1">F23+I23</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H23" s="72">
         <v>1200</v>
@@ -6793,11 +7046,11 @@
       </c>
       <c r="F24" s="73">
         <f ca="1">F23</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G24" s="73">
         <f ca="1">G23</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H24" s="72">
         <v>1400</v>
@@ -6861,11 +7114,11 @@
       </c>
       <c r="F25" s="81">
         <f t="shared" ref="F25:G25" ca="1" si="6">F24</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G25" s="81">
         <f t="shared" ca="1" si="6"/>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H25" s="79" t="str">
         <f>H23 &amp; "|" &amp; H24</f>
@@ -6934,11 +7187,11 @@
       </c>
       <c r="F26" s="73">
         <f ca="1">TODAY()</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G26" s="73">
         <f ca="1">F26+I26</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H26" s="72">
         <v>1100</v>
@@ -7003,11 +7256,11 @@
       </c>
       <c r="F27" s="73">
         <f ca="1">F26</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G27" s="73">
         <f ca="1">G26</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H27" s="72">
         <v>1500</v>
@@ -7071,11 +7324,11 @@
       </c>
       <c r="F28" s="128">
         <f t="shared" ref="F28:G28" ca="1" si="7">F27</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G28" s="128">
         <f t="shared" ca="1" si="7"/>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H28" s="127" t="str">
         <f>H26 &amp; "|" &amp; H27</f>
@@ -7144,11 +7397,11 @@
       </c>
       <c r="F29" s="149">
         <f ca="1">TODAY()</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G29" s="149">
         <f ca="1">F29+I29</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H29" s="150">
         <v>1400</v>
@@ -7213,11 +7466,11 @@
       </c>
       <c r="F30" s="73">
         <f ca="1">F29</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G30" s="73">
         <f ca="1">G29</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H30" s="72">
         <v>2200</v>
@@ -7281,11 +7534,11 @@
       </c>
       <c r="F31" s="81">
         <f t="shared" ref="F31:G31" ca="1" si="8">F30</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G31" s="81">
         <f t="shared" ca="1" si="8"/>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H31" s="79" t="str">
         <f>H29 &amp; "|" &amp; H30</f>
@@ -7354,11 +7607,11 @@
       </c>
       <c r="F32" s="73">
         <f ca="1">TODAY()</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G32" s="73">
         <f ca="1">F32+I32</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H32" s="72">
         <v>1600</v>
@@ -7423,11 +7676,11 @@
       </c>
       <c r="F33" s="73">
         <f ca="1">F32</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G33" s="73">
         <f ca="1">G32</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H33" s="72">
         <v>2300</v>
@@ -7491,11 +7744,11 @@
       </c>
       <c r="F34" s="81">
         <f t="shared" ref="F34:G34" ca="1" si="9">F33</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G34" s="81">
         <f t="shared" ca="1" si="9"/>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H34" s="79" t="str">
         <f>H32 &amp; "|" &amp; H33</f>
@@ -7564,11 +7817,11 @@
       </c>
       <c r="F35" s="73">
         <f ca="1">TODAY()</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G35" s="73">
         <f ca="1">F35+I35</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H35" s="72">
         <v>1700</v>
@@ -7633,11 +7886,11 @@
       </c>
       <c r="F36" s="73">
         <f ca="1">F35</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G36" s="73">
         <f ca="1">G35</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H36" s="72">
         <v>2400</v>
@@ -7701,11 +7954,11 @@
       </c>
       <c r="F37" s="161">
         <f t="shared" ref="F37:G37" ca="1" si="10">F36</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="G37" s="161">
         <f t="shared" ca="1" si="10"/>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="H37" s="160" t="str">
         <f>H35 &amp; "|" &amp; H36</f>
@@ -7873,10 +8126,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="183"/>
+      <c r="C1" s="180"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -8022,9 +8275,9 @@
       <c r="G8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="20" t="e">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3819</v>
+        <v>#N/A</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -8032,20 +8285,20 @@
       <c r="J8" s="19">
         <v>3890</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="19" t="e">
         <f>_xll.dnetDiscreteAdjustedBarrier($H8,$J8,$R8,1/365)</f>
-        <v>3925.7505698872742</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L8" s="55">
         <v>0.02</v>
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -8060,32 +8313,32 @@
       <c r="R8" s="23">
         <v>0.3</v>
       </c>
-      <c r="S8" s="24">
+      <c r="S8" s="24" t="e">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-57.063074999303375</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
-      <c r="U8" s="24">
+      <c r="U8" s="24" t="e">
         <f>T8/10000*P8*H8</f>
-        <v>2.5111232876712331</v>
-      </c>
-      <c r="V8" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="V8" s="24" t="e">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>59.574198286974607</v>
-      </c>
-      <c r="W8" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W8" s="26" t="e">
         <f>V8/H8</f>
-        <v>1.5599423484413356E-2</v>
-      </c>
-      <c r="X8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X8" s="24" t="e">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.1754680882054771</v>
-      </c>
-      <c r="Y8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y8" s="24" t="e">
         <f>_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.5432480828008508</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -8127,11 +8380,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43289</v>
+        <v>43290</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -9956,20 +10209,20 @@
       <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="20" t="e">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3819</v>
+        <v>#N/A</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -9981,32 +10234,32 @@
       <c r="N8" s="23">
         <v>0.3</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>141.85961637315631</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="24" t="e">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.5111232876712331</v>
-      </c>
-      <c r="R8" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="R8" s="24" t="e">
         <f>O8+Q8</f>
-        <v>144.37073966082755</v>
-      </c>
-      <c r="S8" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S8" s="26" t="e">
         <f>R8/H8</f>
-        <v>3.7803283493277703E-2</v>
-      </c>
-      <c r="T8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.54356635556587207</v>
-      </c>
-      <c r="U8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>4.3377238880376581</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -10038,11 +10291,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -10108,11 +10361,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
